--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc3.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc3.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O estabelecimento do regime de passagem em trânsito afeta a soberania do Estado ribeirinho sobre as águas do estreito?</t>
+          <t>O regime de passagem em trânsito afeta a soberania dos Estados ribeirinhos sobre as águas do estreito?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Não, a soberania ou jurisdição sobre as águas, espaço aéreo, leito e subsolo permanece inalterada.</t>
+          <t>Não, o regime não afeta o regime jurídico das águas, nem o exercício da soberania ou jurisdição sobre as águas, leito, subsolo ou espaço aéreo, conforme o Artigo 34, parágrafo 1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág. 10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A Parte III da Convenção (Estreitos) aplica-se se houver uma rota de alto mar igualmente conveniente através do estreito?</t>
+          <t>A Parte III da Convenção aplica-se a um estreito se houver uma rota alternativa conveniente em alto mar?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Não, se houver rota de alto mar ou ZEE igualmente conveniente, aplicam-se as liberdades de navegação e sobrevoo (alto mar).</t>
+          <t>Não, a Parte III não se aplica se houver uma rota de alto mar ou que atravesse uma ZEE igualmente conveniente pelas características hidrográficas e de navegação, conforme o Artigo 36.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág. 10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Como a Convenção define "passagem em trânsito" nos estreitos utilizados para a navegação internacional?</t>
+          <t>O que significa "passagem em trânsito" nos termos da Convenção?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>É o exercício da liberdade de navegação e sobrevoo exclusivamente para fins de trânsito contínuo e rápido.</t>
+          <t>Significa o exercício da liberdade de navegação e sobrevoo exclusivamente para fins de trânsito contínuo e rápido entre uma parte do alto mar (ou ZEE) e outra, conforme o Artigo 38, parágrafo 2.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág. 10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Navios estrangeiros podem realizar levantamentos hidrográficos ou investigação científica durante a passagem em trânsito?</t>
+          <t>Navios de investigação científica podem realizar levantamentos durante a passagem em trânsito sem aviso prévio?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não, tais atividades são proibidas sem a autorização prévia dos Estados ribeirinhos dos estreitos.</t>
+          <t>Não, tais navios não podem efetuar quaisquer atividades de investigação ou levantamentos hidrográficos sem autorização prévia dos Estados ribeirinhos, conforme o Artigo 40.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág. 11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Os navios de passagem em trânsito são obrigados a utilizar as rotas marítimas e sistemas de separação de tráfego designados?</t>
+          <t>Como os Estados ribeirinhos devem proceder para designar rotas marítimas ou sistemas de separação de tráfego em estreitos?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sim, os navios devem respeitar as rotas e sistemas estabelecidos de conformidade com o artigo 41.</t>
+          <t>Devem submeter as suas propostas à organização internacional competente para adoção antes de designá-las ou estabelecê-las, conforme o Artigo 41, parágrafo 4.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág. 11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual obrigação específica as aeronaves em passagem em trânsito têm em relação ao monitoramento de rádio?</t>
+          <t>Qual é o dever dos navios e aeronaves em relação à soberania dos Estados ribeirinhos durante a passagem em trânsito?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Devem manter sempre sintonizada a radiofrequência de controle de tráfego aéreo ou de socorro internacional.</t>
+          <t>Devem abster-se de qualquer ameaça ou uso da força contra a soberania, integridade territorial ou independência política dos Estados ribeirinhos, conforme o Artigo 39, parágrafo 1, alínea b.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág. 11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>As leis e regulamentos do Estado ribeirinho sobre a passagem em trânsito podem fazer distinção entre navios de diferentes bandeiras?</t>
+          <t>As leis e regulamentos adotados pelos Estados ribeirinhos podem fazer distinção entre navios estrangeiros?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Não, tais leis não farão discriminação de direito ou de fato entre os navios estrangeiros.</t>
+          <t>Não, tais leis e regulamentos não farão discriminação de direito ou de fato entre os navios estrangeiros, conforme o Artigo 42, parágrafo 2.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág. 12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O Estado ribeirinho pode suspender a passagem em trânsito em estreitos internacionais por motivos de segurança?</t>
+          <t>É permitida a suspensão da passagem em trânsito pelos Estados ribeirinhos?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Não, o Artigo 44 estabelece expressamente que não haverá nenhuma suspensão da passagem em trânsito.</t>
+          <t>Não, os Estados ribeirinhos não impedirão a passagem e não haverá nenhuma suspensão da passagem em trânsito, conforme o Artigo 44.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág. 12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual regime de passagem se aplica a estreitos formados por uma ilha do Estado ribeirinho e o seu território continental, havendo rota de alto mar ao largo?</t>
+          <t>Quando se aplica o regime de "passagem inocente" (e não "em trânsito") em estreitos internacionais?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aplica-se o regime de passagem inocente, que não poderá ser suspenso.</t>
+          <t>Aplica-se em estreitos excluídos do regime de trânsito (pelo Art. 38, §1) ou situados entre alto mar/ZEE e o mar territorial de um Estado estrangeiro, conforme o Artigo 45, parágrafo 1.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág. 12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
     </row>
